--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA258CA-C16F-43E4-B534-6EEE4E002527}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32F0D6-A947-4DCE-946A-FA4A191837E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,222 @@
   </si>
   <si>
     <t>例句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[计][数] 算法，运算法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genetic algorithm遗传算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">calculus /'kælkjʊləs/
+基本翻译
+n. [病理] 结石；微积分学
+网络释义
+Calculus:微积分 ; 微积分学 ; 结石
+相关查询
+Calculus
+CALCULUS
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tutorial /tju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'tɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rɪəl/
+基本翻译
+n. 个别指导
+adj. 辅导的；家庭教师的，个别指导的
+网络释义
+tutorial:一个学生发言那种 ; 助教的辅导 ; 教程
+相关查询
+Tutorial
+TUTORIAL
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>concrete /'kɒ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t/
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">distributed /dɪ'strɪbjʊtɪd/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>algorithm /'ælgə'rɪðəm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">optimizing
+基本翻译
+n. [数] 优化，最佳化
+v. 最佳化（optimize的现在分词）
+adj. 最佳的
+网络释义
+optimizing:最佳化 ; 优化 ; 优化级
+相关查询
+OPTIMIZING
+optimizing
+Optimizing a
+OPTIMIZING a
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+adj. 分布式的，分散式的
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+n. 具体物；凝结物
+adj. 混凝土的；实在的，具体的；有形的
+vt. 使凝固；用混凝土修筑
+vi. 凝结
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">variance /'veərɪəns/
+基本翻译
+n. 变异；变化；不一致；分歧；[数] 方差
+网络释义
+variance:方差 ; 方差 ; 变异数
+相关查询
+Variance
+VARIANCE
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">the curse of dimensionality
+基本翻译
+维数灾难
+网络释义
+The curse of dimensionality:维数灾难 ; 维度灾难 ; 维灾
+相关查询
+The curse of dimensionality
+THE curse of dimensionality
+the Curse of dimensionality
+the CURSE of dimensionality
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">resemble /rɪ'zemb(ə)l/
+基本翻译
+vt. 类似，像
+网络释义
+resemble:像 ; 相似 ; 类似
+相关查询
+Resemble
+RESEMBLE
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">convolutional
+基本翻译
+adj. 卷积的；回旋的；脑回的
+网络释义
+convolutional:回旋的 ; 脑回的 ; 卷积码
+相关查询
+CONVOLUTIONAL
+convolutional
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -42,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +270,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -99,12 +323,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,17 +612,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -413,67 +641,282 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:4" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:4" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:4" ht="193.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
+    <row r="12" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32F0D6-A947-4DCE-946A-FA4A191837E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F071FFE-79A0-4A0F-B0ED-1EF97AC4FBBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,332 @@
 相关查询
 CONVOLUTIONAL
 convolutional
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jargon /'dʒɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">g(ə)n/
+基本翻译
+n. 行话，术语；黄锆石
+网络释义
+jargon:行话 ; 专门术语 ; 术语
+相关查询
+Jargon
+JARGON
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> semisupervised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半监督</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>reinforcement /ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ɪn'fɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sm(ə)nt/
+基本翻译
+n. 加固；增援；援军；加强
+网络释义
+Reinforcement:补强 ; 加固 ; 强化
+相关查询
+REINFORCEMENT
+reinforcement
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">criteria /kraɪ'tɪərɪə/
+基本翻译
+n. 标准，条件（criterion的复数）
+网络释义
+criteria:标准 ; 条件 ; 准则
+相关查询
+Criteria
+CRITERIA
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>clustering /'klʌstərɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/
+基本翻译
+n. 聚集，收集；分类归并
+v. 使成群（cluster的现在分词）
+网络释义
+Clustering:聚类 ; 聚集 ; 群集
+相关查询
+CLUSTERING
+clustering
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hierarchical /haɪə'rɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">kɪk(ə)l/
+基本翻译
+adj. 分层的；等级体系的
+网络释义
+hierarchical:分等级的 ; 分层的 ; 层次
+相关查询
+HIERARCHICAL
+hierarchical
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>embedding /im'bedi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/
+基本翻译
+v. [医] 植入；埋藏（embed的ing形式）
+网络释义
+Embedding:嵌入 (数学) ; 嵌入 ; 包埋
+相关查询
+EMBEDDING
+embedding
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">stochastic /stə'kæstɪk/
+基本翻译
+adj. [数] 随机的；猜测的
+网络释义
+stochastic:随机的 ; 随机指数 ; 随机指标
+相关查询
+STOCHASTIC
+stochastic
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">apriori /'eiprai'ɔ:rai/
+基本翻译
+adj. 先验的；推测的
+adv. 自原因推及结果地
+网络释义
+Apriori:算法 ; 关联规则 ; 先验的
+相关查询
+APRIORI
+apriori
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">comic books
+基本翻译
+漫画书；连环画
+网络释义
+Comic Books:漫画书 ; 连环画 ; 最爱书籍
+相关查询
+Comic books
+COMIC books
+comic Books
+comic BOOKS
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">overlaping
+网络释义
+overlaping:重叠
+相关查询
+Overlaping
+OVERLAPING
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">extraction /ɪk'strækʃ(ə)n; ek-/
+基本翻译
+n. 取出；抽出；拔出；抽出物；出身
+网络释义
+Extraction:萃取 ; 家世 ; 提取
+相关查询
+Extraction
+EXTRACTION
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>fraud /frɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d/
+基本翻译
+n. 欺骗；骗子；诡计
+n. (Fraud)人名；(法)弗罗
+网络释义
+Fraud:欺诈 ; 欺骗 ; 诈骗
+相关查询
+Fraud
+FRAUD
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">penalty
+基本翻译
+n. 处罚，惩罚；点球（penalty的复数）；罚款
+网络释义
+Penalties:点球 ; 次点球 ; 靠点球
+相关查询
+Penalties
+PENALTIES
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -614,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -672,7 +998,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -680,7 +1006,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="179.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -729,85 +1055,115 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>

--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="6000" windowHeight="11505"/>
+    <workbookView windowWidth="14325" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>单词</t>
   </si>
@@ -229,6 +229,20 @@
 n. 处罚，惩罚；点球（penalty的复数）；罚款
 网络释义
 Penalties:点球 ; 次点球 ; 靠点球</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anomaly detection
+基本翻译
+异常发现
+异常检测
+网络释义
+Anomaly Detection:异常检测 ; 异常侦测 ; 异常检测模型
+相关查询
+Anomaly detection
+ANOMALY detection
+anomaly Detection
+anomaly DETECTION
+</t>
   </si>
 </sst>
 </file>
@@ -236,12 +250,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +271,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -265,23 +322,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,12 +379,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -333,75 +407,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,49 +429,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,18 +573,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -500,48 +597,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -549,60 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,6 +628,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,11 +671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,7 +716,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,170 +729,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -894,9 +895,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1220,8 +1218,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1293,7 +1291,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4"/>
@@ -1303,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="4"/>
@@ -1313,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="4"/>
@@ -1323,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4"/>
@@ -1333,7 +1331,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="4"/>
@@ -1343,7 +1341,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="4"/>
@@ -1353,7 +1351,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="4"/>
@@ -1373,7 +1371,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="4"/>
@@ -1383,7 +1381,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="4"/>
@@ -1393,7 +1391,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="4"/>
@@ -1403,7 +1401,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="4"/>
@@ -1413,7 +1411,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="4"/>
@@ -1423,7 +1421,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="4"/>
@@ -1433,7 +1431,7 @@
         <v>41</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="4"/>
@@ -1443,7 +1441,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="4"/>
@@ -1453,7 +1451,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="4"/>
@@ -1463,7 +1461,7 @@
         <v>47</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="4"/>
@@ -1473,7 +1471,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="4"/>
@@ -1483,13 +1481,15 @@
         <v>51</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>

--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14325" windowHeight="9750"/>
+    <workbookView windowWidth="16785" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>单词</t>
   </si>
@@ -244,15 +244,39 @@
 anomaly DETECTION
 </t>
   </si>
+  <si>
+    <t>discard /dɪ'skɑːd/
+基本翻译
+vt. 抛弃；放弃；丢弃
+vi. 放弃
+n. 抛弃；被丢弃的东西或人
+网络释义
+discard:丢弃 ; 抛弃 ; 遗弃
+相关查询
+Discard
+DISCARD
+discard them
+Discard them</t>
+  </si>
+  <si>
+    <t>outliers
+基本翻译
+n. [分化] 异常值；离群值；离开本体的东西；局外人（outlier的复数）
+网络释义
+Outliers:极端值 ; 异常值 ; 离群值
+相关查询
+Outliers
+OUTLIERS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -271,22 +295,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,7 +386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,38 +409,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -378,33 +424,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -429,55 +453,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,121 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +652,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,6 +730,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -685,60 +753,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,133 +771,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1495,13 +1519,17 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>

--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16785" windowHeight="8520"/>
+    <workbookView windowWidth="16635" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>单词</t>
   </si>
@@ -268,14 +268,36 @@
 Outliers
 OUTLIERS</t>
   </si>
+  <si>
+    <t xml:space="preserve">constraints /kən'streint/
+基本翻译
+n. [数] 约束；限制；约束条件（constraint的复数形式）
+网络释义
+Constraints:约束 ; 掣肘 ; 约束条件
+相关查询
+Constraints
+CONSTRAINTS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regularization /,reɡjulərai'zeiʃən, -ri'z-/
+基本翻译
+n. 规则化；调整；合法化
+网络释义
+Regularization:正则化 ; 正规化 ; 转正
+相关查询
+Regularization
+REGULARIZATION
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -289,7 +311,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,131 +448,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -453,181 +475,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,11 +680,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,24 +713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,17 +756,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1242,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1535,13 +1557,17 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>

--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aistudy\Hands On Machine Learning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529D0B84-D5AC-4B1B-8565-55A58C9A6D74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16632" windowHeight="9756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>单词</t>
   </si>
@@ -290,18 +296,174 @@
 REGULARIZATION
 </t>
   </si>
+  <si>
+    <r>
+      <t>superfluous /su</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'pɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flʊəs; sju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-/
+基本翻译
+adj. 多余的；不必要的；奢侈的
+网络释义
+Superfluous:多余 ; 过剩的 ; 花架子
+相关查询
+Superfluous
+SUPERFLUOUS
+the superfluous
+The superfluous
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentally /fʌndə'mentəlɪ/
+基本翻译
+adv. 根本地，从根本上；基础地
+网络释义
+Fundamentally:基础的 ; 根本地 ; 重要地
+相关查询
+Fundamentally
+FUNDAMENTALLY
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">theorem /'θɪərəm/
+基本翻译
+n. [数] 定理；原理
+网络释义
+theorem:定理 ; 原理 ; 大数定理
+相关查询
+Theorem
+THEOREM
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a priori /,eiprai'ɔ:rai, ,ɑ:pri:'ɔ:ri/
+基本翻译
+adv. 先天地；演绎地；推理地
+adj. 先天的；（拉）演绎的，推理的
+网络释义
+A priori:先创语言与非先创语言 ; 先验的 ; 先天的
+相关查询
+A priori
+a Priori
+a PRIORI
+A Priori
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">terrains
+基本翻译
+n. [地理] 地形
+网络释义
+terrains:地形 ; 地面地形 ; 河流道路等
+相关查询
+Terrains
+TERRAINS
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">segment /'segm(ə)nt/
+基本翻译
+vt. 分割
+vi. 分割
+n. 段；部分
+网络释义
+SEGMENT:段 ; 部分 ; 线段
+相关查询
+Segment
+SEGMENT
+to segment
+To segment
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">frame /freɪm/
+基本翻译
+vt. 设计；建造；陷害；使…适合
+vi. 有成功希望
+n. 框架；结构；[电影] 画面
+adj. 有木架的；有构架的
+n. (Frame)人名；(英)弗雷姆
+网络释义
+Frame:车架 ; 框架 ; 帧
+相关查询
+Frame
+FRAME
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,151 +472,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,198 +503,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -677,253 +537,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -943,62 +561,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1256,27 +833,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.4416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.4416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1302,7 +879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +889,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +899,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" ht="60" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1332,7 +909,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +919,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" ht="60" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +929,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" ht="60" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1362,7 +939,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" ht="60" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1372,7 +949,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" ht="60" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +959,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" ht="60" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1392,7 +969,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" ht="60" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1402,7 +979,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" ht="60" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1412,7 +989,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" ht="60" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1422,7 +999,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" ht="60" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1432,7 +1009,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" ht="60" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1442,7 +1019,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" ht="60" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1452,7 +1029,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" ht="60" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1462,7 +1039,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" ht="60" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1472,7 +1049,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" ht="60" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1482,7 +1059,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" ht="60" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1492,7 +1069,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" ht="60" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1502,7 +1079,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" ht="60" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -1512,7 +1089,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" ht="60" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1522,7 +1099,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" ht="60" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -1532,7 +1109,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" ht="79.95" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1540,7 +1117,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" ht="79.95" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1548,7 +1125,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" ht="79.95" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -1556,7 +1133,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" ht="79.95" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1564,7 +1141,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" ht="79.95" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1572,81 +1149,189 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A34" s="4"/>
+    <row r="34" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
+    <row r="43" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aistudy\Hands On Machine Learning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529D0B84-D5AC-4B1B-8565-55A58C9A6D74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16632" windowHeight="9756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16635" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>单词</t>
   </si>
@@ -237,7 +231,7 @@
 Penalties:点球 ; 次点球 ; 靠点球</t>
   </si>
   <si>
-    <t xml:space="preserve">anomaly detection
+    <t>anomaly detection
 基本翻译
 异常发现
 异常检测
@@ -247,8 +241,7 @@
 Anomaly detection
 ANOMALY detection
 anomaly Detection
-anomaly DETECTION
-</t>
+anomaly DETECTION</t>
   </si>
   <si>
     <t>discard /dɪ'skɑːd/
@@ -275,93 +268,27 @@
 OUTLIERS</t>
   </si>
   <si>
-    <t xml:space="preserve">constraints /kən'streint/
+    <t>constraints /kən'streint/
 基本翻译
 n. [数] 约束；限制；约束条件（constraint的复数形式）
 网络释义
 Constraints:约束 ; 掣肘 ; 约束条件
 相关查询
 Constraints
-CONSTRAINTS
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regularization /,reɡjulərai'zeiʃən, -ri'z-/
+CONSTRAINTS</t>
+  </si>
+  <si>
+    <t>regularization /,reɡjulərai'zeiʃən, -ri'z-/
 基本翻译
 n. 规则化；调整；合法化
 网络释义
 Regularization:正则化 ; 正规化 ; 转正
 相关查询
 Regularization
-REGULARIZATION
-</t>
-  </si>
-  <si>
-    <r>
-      <t>superfluous /su</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'pɜ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flʊəs; sju</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-/
+REGULARIZATION</t>
+  </si>
+  <si>
+    <t>superfluous /suː'pɜːflʊəs; sjuː-/
 基本翻译
 adj. 多余的；不必要的；奢侈的
 网络释义
@@ -370,37 +297,30 @@
 Superfluous
 SUPERFLUOUS
 the superfluous
-The superfluous
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">fundamentally /fʌndə'mentəlɪ/
+The superfluous</t>
+  </si>
+  <si>
+    <t>fundamentally /fʌndə'mentəlɪ/
 基本翻译
 adv. 根本地，从根本上；基础地
 网络释义
 Fundamentally:基础的 ; 根本地 ; 重要地
 相关查询
 Fundamentally
-FUNDAMENTALLY
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">theorem /'θɪərəm/
+FUNDAMENTALLY</t>
+  </si>
+  <si>
+    <t>theorem /'θɪərəm/
 基本翻译
 n. [数] 定理；原理
 网络释义
 theorem:定理 ; 原理 ; 大数定理
 相关查询
 Theorem
-THEOREM
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">a priori /,eiprai'ɔ:rai, ,ɑ:pri:'ɔ:ri/
+THEOREM</t>
+  </si>
+  <si>
+    <t>a priori /,eiprai'ɔ:rai, ,ɑ:pri:'ɔ:ri/
 基本翻译
 adv. 先天地；演绎地；推理地
 adj. 先天的；（拉）演绎的，推理的
@@ -410,24 +330,20 @@
 A priori
 a Priori
 a PRIORI
-A Priori
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">terrains
+A Priori</t>
+  </si>
+  <si>
+    <t>terrains
 基本翻译
 n. [地理] 地形
 网络释义
 terrains:地形 ; 地面地形 ; 河流道路等
 相关查询
 Terrains
-TERRAINS
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">segment /'segm(ə)nt/
+TERRAINS</t>
+  </si>
+  <si>
+    <t>segment /'segm(ə)nt/
 基本翻译
 vt. 分割
 vi. 分割
@@ -438,12 +354,10 @@
 Segment
 SEGMENT
 to segment
-To segment
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">frame /freɪm/
+To segment</t>
+  </si>
+  <si>
+    <t>frame /freɪm/
 基本翻译
 vt. 设计；建造；陷害；使…适合
 vi. 有成功希望
@@ -454,16 +368,96 @@
 Frame:车架 ; 框架 ; 帧
 相关查询
 Frame
-FRAME
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+FRAME</t>
+  </si>
+  <si>
+    <t>pipeline /'paɪplaɪn/
+基本翻译
+n. 管道；输油管；传递途径
+网络释义
+Pipeline:管道 ; 管输工艺 ; 管道
+相关查询
+Pipeline
+PIPELINE
+data pipeline
+Data pipeline</t>
+  </si>
+  <si>
+    <t>manipulate 
+ /mə'nɪpjʊleɪt/
+  美 /mə'nɪpjulet/</t>
+  </si>
+  <si>
+    <t>vt. 操纵；操作；巧妙地处理；篡改</t>
+  </si>
+  <si>
+    <t>tweaking
+基本翻译
+v. 捏，扭，拧；对…稍作调整（tweak的现在分词）
+网络释义
+Tweaking:扭捏 ; 补偿配置 ; 调整
+相关查询
+Tweaking
+TWEAKING</t>
+  </si>
+  <si>
+    <t>reference /'ref(ə)r(ə)ns/
+基本翻译
+n. 参考，参照；涉及，提及；参考书目；介绍信；证明书
+vt. 引用
+vi. 引用
+网络释义
+Reference:参考 ; 引用 ; 参考文献
+相关查询
+Reference
+REFERENCE
+a reference
+A reference</t>
+  </si>
+  <si>
+    <t>standard deviation
+基本翻译
+[物] 标准偏差
+网络释义
+standard deviation:标准差 ; 标准偏差 ; 标准离差
+相关查询
+Standard deviation
+STANDARD deviation
+standard Deviation
+standard DEVIATION</t>
+  </si>
+  <si>
+    <t>fall within
+基本翻译
+属于；该当，适合
+网络释义
+fall within:属于 ; 适合于 ; 适合
+相关查询
+Fall within
+FALL within
+fall Within
+fall WITHIN</t>
+  </si>
+  <si>
+    <t>notation
+ 英 /nəʊ'teɪʃ(ə)n/
+ 美 /noʊˈteɪʃən/</t>
+  </si>
+  <si>
+    <t>n. [计][数] 符号（notation的复数）；[数] 记法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +466,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -481,20 +476,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,18 +626,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -537,11 +846,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -561,21 +1112,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -833,27 +1434,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.4416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.4416666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -867,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="60" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -879,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="60" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -889,7 +1490,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="60" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -899,7 +1500,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="60" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -909,7 +1510,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="60" customHeight="1" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -919,7 +1520,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="60" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -929,7 +1530,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="60" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -939,7 +1540,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="60" customHeight="1" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -949,7 +1550,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="60" customHeight="1" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -959,7 +1560,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="60" customHeight="1" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -969,7 +1570,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="60" customHeight="1" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -979,7 +1580,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="60" customHeight="1" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -989,7 +1590,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="60" customHeight="1" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -999,7 +1600,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="60" customHeight="1" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1009,7 +1610,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="60" customHeight="1" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1019,7 +1620,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="60" customHeight="1" spans="1:4">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1029,7 +1630,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="60" customHeight="1" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1039,7 +1640,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="60" customHeight="1" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1049,7 +1650,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="60" customHeight="1" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1059,7 +1660,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="60" customHeight="1" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1069,7 +1670,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="60" customHeight="1" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1079,7 +1680,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="60" customHeight="1" spans="1:4">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -1089,7 +1690,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="60" customHeight="1" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1099,7 +1700,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="60" customHeight="1" spans="1:4">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -1109,7 +1710,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="79.95" customHeight="1" spans="1:4">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1117,7 +1718,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="79.95" customHeight="1" spans="1:4">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1125,7 +1726,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="79.95" customHeight="1" spans="1:4">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -1133,7 +1734,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="79.95" customHeight="1" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1141,7 +1742,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="79.95" customHeight="1" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1149,7 +1750,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="79.95" customHeight="1" spans="1:4">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -1157,7 +1758,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="79.95" customHeight="1" spans="1:4">
       <c r="A32" s="7" t="s">
         <v>59</v>
       </c>
@@ -1165,7 +1766,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="79.95" customHeight="1" spans="1:4">
       <c r="A33" s="7" t="s">
         <v>60</v>
       </c>
@@ -1173,7 +1774,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="79.95" customHeight="1" spans="1:4">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -1181,7 +1782,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="79.95" customHeight="1" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -1189,7 +1790,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="79.95" customHeight="1" spans="1:4">
       <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
@@ -1197,7 +1798,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="79.95" customHeight="1" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
@@ -1205,133 +1806,921 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+    <row r="38" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+    <row r="39" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+    <row r="40" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A40" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+    <row r="41" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A41" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+    <row r="42" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="79.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+    </row>
+    <row r="130" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+    </row>
+    <row r="131" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+    </row>
+    <row r="132" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+    </row>
+    <row r="133" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+    </row>
+    <row r="134" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+    </row>
+    <row r="135" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+    </row>
+    <row r="136" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="9"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="9"/>
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="9"/>
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="9"/>
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="9"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="9"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="9"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\AI-\Hands On Machine Learning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A34D01E-B05B-4BEC-A173-0922362DB4EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="9750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16632" windowHeight="9756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>单词</t>
   </si>
@@ -446,18 +452,90 @@
   <si>
     <t>n. [计][数] 符号（notation的复数）；[数] 记法</t>
   </si>
+  <si>
+    <t xml:space="preserve">scalar /'skeɪlə/
+基本翻译
+adj. 标量的；数量的；梯状的，分等级的
+n. [数] 标量；[数] 数量
+网络释义
+scalar:标量 ; 纯量 ; 纯量
+相关查询
+Scalar
+SCALAR
+scalar values
+Scalar values
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">norms /nɔ:ms/
+基本翻译
+n. [标准] 标准，规范；基准（norm复数形式）
+网络释义
+Norms:规范 ; 标准 ; 规格
+相关查询
+Norms
+NORMS
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">correspond /kɒrɪ'spɒnd/
+基本翻译
+vi. 符合，一致；相应；通信
+网络释义
+correspond:通信 ; 相当 ; 符合
+相关查询
+Correspond
+CORRESPOND
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cardinality /kɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dɪ'nælɪtɪ/
+基本翻译
+n. 基数；集的势
+网络释义
+Cardinality:基数 ; 势的比较 ; 集的势
+相关查询
+Cardinality
+CARDINALITY
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,151 +551,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,204 +582,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -846,253 +616,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1121,62 +649,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1434,27 +924,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.4416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.4416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1468,7 +958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1490,7 +980,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1500,7 +990,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" ht="60" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1000,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" ht="60" customHeight="1" spans="1:4">
+    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1010,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" ht="60" customHeight="1" spans="1:4">
+    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1530,7 +1020,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" ht="60" customHeight="1" spans="1:4">
+    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1540,7 +1030,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" ht="60" customHeight="1" spans="1:4">
+    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1040,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" ht="60" customHeight="1" spans="1:4">
+    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1050,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" ht="60" customHeight="1" spans="1:4">
+    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1570,7 +1060,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" ht="60" customHeight="1" spans="1:4">
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1070,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" ht="60" customHeight="1" spans="1:4">
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1590,7 +1080,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" ht="60" customHeight="1" spans="1:4">
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1090,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" ht="60" customHeight="1" spans="1:4">
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1610,7 +1100,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" ht="60" customHeight="1" spans="1:4">
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1110,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" ht="60" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1630,7 +1120,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" ht="60" customHeight="1" spans="1:4">
+    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1640,7 +1130,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" ht="60" customHeight="1" spans="1:4">
+    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1140,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" ht="60" customHeight="1" spans="1:4">
+    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1660,7 +1150,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" ht="60" customHeight="1" spans="1:4">
+    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1670,7 +1160,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" ht="60" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1680,7 +1170,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" ht="60" customHeight="1" spans="1:4">
+    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -1690,7 +1180,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" ht="60" customHeight="1" spans="1:4">
+    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1700,7 +1190,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" ht="60" customHeight="1" spans="1:4">
+    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -1710,7 +1200,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" ht="79.95" customHeight="1" spans="1:4">
+    <row r="26" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1718,7 +1208,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" ht="79.95" customHeight="1" spans="1:4">
+    <row r="27" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1726,7 +1216,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" ht="79.95" customHeight="1" spans="1:4">
+    <row r="28" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -1734,7 +1224,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" ht="79.95" customHeight="1" spans="1:4">
+    <row r="29" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1232,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" ht="79.95" customHeight="1" spans="1:4">
+    <row r="30" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1750,7 +1240,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" ht="79.95" customHeight="1" spans="1:4">
+    <row r="31" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -1758,7 +1248,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" ht="79.95" customHeight="1" spans="1:4">
+    <row r="32" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>59</v>
       </c>
@@ -1766,7 +1256,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" ht="79.95" customHeight="1" spans="1:4">
+    <row r="33" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>60</v>
       </c>
@@ -1774,7 +1264,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" ht="79.95" customHeight="1" spans="1:4">
+    <row r="34" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -1782,7 +1272,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" ht="79.95" customHeight="1" spans="1:4">
+    <row r="35" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -1790,7 +1280,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" ht="79.95" customHeight="1" spans="1:4">
+    <row r="36" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
@@ -1798,7 +1288,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" ht="79.95" customHeight="1" spans="1:4">
+    <row r="37" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
@@ -1806,7 +1296,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" ht="79.95" customHeight="1" spans="1:4">
+    <row r="38" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>65</v>
       </c>
@@ -1814,7 +1304,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" ht="79.95" customHeight="1" spans="1:4">
+    <row r="39" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
@@ -1824,7 +1314,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" ht="79.95" customHeight="1" spans="1:4">
+    <row r="40" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
@@ -1832,7 +1322,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" ht="79.95" customHeight="1" spans="1:4">
+    <row r="41" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>69</v>
       </c>
@@ -1840,7 +1330,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" ht="79.95" customHeight="1" spans="1:4">
+    <row r="42" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>70</v>
       </c>
@@ -1848,7 +1338,7 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" ht="79.95" customHeight="1" spans="1:4">
+    <row r="43" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>71</v>
       </c>
@@ -1856,7 +1346,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" ht="79.95" customHeight="1" spans="1:4">
+    <row r="44" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>72</v>
       </c>
@@ -1866,861 +1356,871 @@
       </c>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A45" s="9"/>
+    <row r="45" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A46" s="9"/>
+    <row r="46" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="C46" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A47" s="9"/>
+    <row r="47" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" ht="79.95" customHeight="1" spans="1:4">
+    <row r="49" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" ht="79.95" customHeight="1" spans="1:4">
+    <row r="50" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" ht="79.95" customHeight="1" spans="1:4">
+    <row r="51" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" ht="79.95" customHeight="1" spans="1:4">
+    <row r="52" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" ht="79.95" customHeight="1" spans="1:4">
+    <row r="53" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" ht="79.95" customHeight="1" spans="1:4">
+    <row r="54" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" ht="79.95" customHeight="1" spans="1:4">
+    <row r="55" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" ht="79.95" customHeight="1" spans="1:4">
+    <row r="56" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" ht="79.95" customHeight="1" spans="1:4">
+    <row r="57" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" ht="79.95" customHeight="1" spans="1:4">
+    <row r="58" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" ht="79.95" customHeight="1" spans="1:4">
+    <row r="59" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" ht="79.95" customHeight="1" spans="1:4">
+    <row r="60" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" ht="79.95" customHeight="1" spans="1:4">
+    <row r="61" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" ht="79.95" customHeight="1" spans="1:4">
+    <row r="62" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" ht="79.95" customHeight="1" spans="1:4">
+    <row r="63" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" ht="79.95" customHeight="1" spans="1:4">
+    <row r="64" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" ht="79.95" customHeight="1" spans="1:4">
+    <row r="65" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" ht="79.95" customHeight="1" spans="1:4">
+    <row r="66" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" ht="79.95" customHeight="1" spans="1:4">
+    <row r="67" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" ht="79.95" customHeight="1" spans="1:4">
+    <row r="68" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" ht="79.95" customHeight="1" spans="1:4">
+    <row r="69" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" ht="79.95" customHeight="1" spans="1:4">
+    <row r="70" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" ht="79.95" customHeight="1" spans="1:4">
+    <row r="71" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" ht="79.95" customHeight="1" spans="1:4">
+    <row r="72" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" ht="79.95" customHeight="1" spans="1:4">
+    <row r="73" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" ht="79.95" customHeight="1" spans="1:4">
+    <row r="74" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" ht="79.95" customHeight="1" spans="1:4">
+    <row r="75" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" ht="79.95" customHeight="1" spans="1:4">
+    <row r="76" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" ht="79.95" customHeight="1" spans="1:4">
+    <row r="77" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" ht="79.95" customHeight="1" spans="1:4">
+    <row r="78" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" ht="79.95" customHeight="1" spans="1:4">
+    <row r="79" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" ht="79.95" customHeight="1" spans="1:4">
+    <row r="80" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" ht="79.95" customHeight="1" spans="1:4">
+    <row r="81" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" ht="79.95" customHeight="1" spans="1:4">
+    <row r="82" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" ht="79.95" customHeight="1" spans="1:4">
+    <row r="83" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" ht="79.95" customHeight="1" spans="1:4">
+    <row r="84" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" ht="79.95" customHeight="1" spans="1:4">
+    <row r="85" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" ht="79.95" customHeight="1" spans="1:4">
+    <row r="86" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" ht="79.95" customHeight="1" spans="1:4">
+    <row r="87" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" ht="79.95" customHeight="1" spans="1:4">
+    <row r="88" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" ht="79.95" customHeight="1" spans="1:4">
+    <row r="89" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" ht="79.95" customHeight="1" spans="1:4">
+    <row r="90" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" ht="79.95" customHeight="1" spans="1:4">
+    <row r="91" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" ht="79.95" customHeight="1" spans="1:4">
+    <row r="92" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" ht="79.95" customHeight="1" spans="1:4">
+    <row r="93" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" ht="79.95" customHeight="1" spans="1:4">
+    <row r="94" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" ht="79.95" customHeight="1" spans="1:4">
+    <row r="95" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" ht="79.95" customHeight="1" spans="1:4">
+    <row r="96" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" ht="79.95" customHeight="1" spans="1:4">
+    <row r="97" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" ht="79.95" customHeight="1" spans="1:4">
+    <row r="98" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
-    <row r="99" ht="79.95" customHeight="1" spans="1:4">
+    <row r="99" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
     </row>
-    <row r="100" ht="79.95" customHeight="1" spans="1:4">
+    <row r="100" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
     </row>
-    <row r="101" ht="79.95" customHeight="1" spans="1:4">
+    <row r="101" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
     </row>
-    <row r="102" ht="79.95" customHeight="1" spans="1:4">
+    <row r="102" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
     </row>
-    <row r="103" ht="79.95" customHeight="1" spans="1:4">
+    <row r="103" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
     </row>
-    <row r="104" ht="79.95" customHeight="1" spans="1:4">
+    <row r="104" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
     </row>
-    <row r="105" ht="79.95" customHeight="1" spans="1:4">
+    <row r="105" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
     </row>
-    <row r="106" ht="79.95" customHeight="1" spans="1:4">
+    <row r="106" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
     </row>
-    <row r="107" ht="79.95" customHeight="1" spans="1:4">
+    <row r="107" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
     </row>
-    <row r="108" ht="79.95" customHeight="1" spans="1:4">
+    <row r="108" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
     </row>
-    <row r="109" ht="79.95" customHeight="1" spans="1:4">
+    <row r="109" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
     </row>
-    <row r="110" ht="79.95" customHeight="1" spans="1:4">
+    <row r="110" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
     </row>
-    <row r="111" ht="79.95" customHeight="1" spans="1:4">
+    <row r="111" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
     </row>
-    <row r="112" ht="79.95" customHeight="1" spans="1:4">
+    <row r="112" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
     </row>
-    <row r="113" ht="79.95" customHeight="1" spans="1:4">
+    <row r="113" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
     </row>
-    <row r="114" ht="79.95" customHeight="1" spans="1:4">
+    <row r="114" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
     </row>
-    <row r="115" ht="79.95" customHeight="1" spans="1:4">
+    <row r="115" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
     </row>
-    <row r="116" ht="79.95" customHeight="1" spans="1:4">
+    <row r="116" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
     </row>
-    <row r="117" ht="79.95" customHeight="1" spans="1:4">
+    <row r="117" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
     </row>
-    <row r="118" ht="79.95" customHeight="1" spans="1:4">
+    <row r="118" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
     </row>
-    <row r="119" ht="79.95" customHeight="1" spans="1:4">
+    <row r="119" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
     </row>
-    <row r="120" ht="79.95" customHeight="1" spans="1:4">
+    <row r="120" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
     </row>
-    <row r="121" ht="79.95" customHeight="1" spans="1:4">
+    <row r="121" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
     </row>
-    <row r="122" ht="79.95" customHeight="1" spans="1:4">
+    <row r="122" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
     </row>
-    <row r="123" ht="79.95" customHeight="1" spans="1:4">
+    <row r="123" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
     </row>
-    <row r="124" ht="79.95" customHeight="1" spans="1:4">
+    <row r="124" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
     </row>
-    <row r="125" ht="79.95" customHeight="1" spans="1:4">
+    <row r="125" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
     </row>
-    <row r="126" ht="79.95" customHeight="1" spans="1:4">
+    <row r="126" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
     </row>
-    <row r="127" ht="79.95" customHeight="1" spans="1:4">
+    <row r="127" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
     </row>
-    <row r="128" ht="79.95" customHeight="1" spans="1:4">
+    <row r="128" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
     </row>
-    <row r="129" ht="79.95" customHeight="1" spans="1:4">
+    <row r="129" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
     </row>
-    <row r="130" ht="79.95" customHeight="1" spans="1:4">
+    <row r="130" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
     </row>
-    <row r="131" ht="79.95" customHeight="1" spans="1:4">
+    <row r="131" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
     </row>
-    <row r="132" ht="79.95" customHeight="1" spans="1:4">
+    <row r="132" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
     </row>
-    <row r="133" ht="79.95" customHeight="1" spans="1:4">
+    <row r="133" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
     </row>
-    <row r="134" ht="79.95" customHeight="1" spans="1:4">
+    <row r="134" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
     </row>
-    <row r="135" ht="79.95" customHeight="1" spans="1:4">
+    <row r="135" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
     </row>
-    <row r="136" ht="79.95" customHeight="1" spans="1:4">
+    <row r="136" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\AI-\Hands On Machine Learning\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A34D01E-B05B-4BEC-A173-0922362DB4EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16632" windowHeight="9756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18165" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
   <si>
     <t>单词</t>
   </si>
@@ -453,7 +447,7 @@
     <t>n. [计][数] 符号（notation的复数）；[数] 记法</t>
   </si>
   <si>
-    <t xml:space="preserve">scalar /'skeɪlə/
+    <t>scalar /'skeɪlə/
 基本翻译
 adj. 标量的；数量的；梯状的，分等级的
 n. [数] 标量；[数] 数量
@@ -463,79 +457,63 @@
 Scalar
 SCALAR
 scalar values
-Scalar values
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">norms /nɔ:ms/
+Scalar values</t>
+  </si>
+  <si>
+    <t>norms /nɔ:ms/
 基本翻译
 n. [标准] 标准，规范；基准（norm复数形式）
 网络释义
 Norms:规范 ; 标准 ; 规格
 相关查询
 Norms
-NORMS
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">correspond /kɒrɪ'spɒnd/
+NORMS</t>
+  </si>
+  <si>
+    <t>范数</t>
+  </si>
+  <si>
+    <t>correspond /kɒrɪ'spɒnd/
 基本翻译
 vi. 符合，一致；相应；通信
 网络释义
 correspond:通信 ; 相当 ; 符合
 相关查询
 Correspond
-CORRESPOND
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>范数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>cardinality /kɑ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dɪ'nælɪtɪ/
+CORRESPOND</t>
+  </si>
+  <si>
+    <t>cardinality /kɑːdɪ'nælɪtɪ/
 基本翻译
 n. 基数；集的势
 网络释义
 Cardinality:基数 ; 势的比较 ; 集的势
 相关查询
 Cardinality
-CARDINALITY
-</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+CARDINALITY</t>
+  </si>
+  <si>
+    <t>precise /prɪ'saɪs/
+基本翻译
+adj. 精确的；明确的；严格的
+网络释义
+precise:一丝不苟的 ; 精确的 ; 精密
+相关查询
+Precise
+PRECISE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,29 +529,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,18 +682,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -616,11 +902,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -640,33 +1168,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -924,27 +1490,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.4416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.4416666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -958,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="60" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -970,7 +1536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="60" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -980,7 +1546,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="60" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -990,7 +1556,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="60" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1000,7 +1566,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="60" customHeight="1" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1576,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="60" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1586,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" ht="60" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1030,7 +1596,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" ht="60" customHeight="1" spans="1:4">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1040,7 +1606,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="60" customHeight="1" spans="1:4">
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1050,7 +1616,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="60" customHeight="1" spans="1:4">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1626,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="60" customHeight="1" spans="1:4">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1070,7 +1636,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="60" customHeight="1" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1080,7 +1646,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="60" customHeight="1" spans="1:4">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1090,7 +1656,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" ht="60" customHeight="1" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -1100,7 +1666,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="60" customHeight="1" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1676,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="60" customHeight="1" spans="1:4">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
@@ -1120,7 +1686,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" ht="60" customHeight="1" spans="1:4">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -1130,7 +1696,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" ht="60" customHeight="1" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
@@ -1140,7 +1706,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" ht="60" customHeight="1" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>41</v>
       </c>
@@ -1150,7 +1716,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="60" customHeight="1" spans="1:4">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1160,7 +1726,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" ht="60" customHeight="1" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -1170,7 +1736,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" ht="60" customHeight="1" spans="1:4">
       <c r="A23" s="5" t="s">
         <v>47</v>
       </c>
@@ -1180,7 +1746,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" ht="60" customHeight="1" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
@@ -1190,7 +1756,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="60" customHeight="1" spans="1:4">
       <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
@@ -1200,7 +1766,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" ht="79.95" customHeight="1" spans="1:4">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1208,7 +1774,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" ht="79.95" customHeight="1" spans="1:4">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1216,7 +1782,7 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" ht="79.95" customHeight="1" spans="1:4">
       <c r="A28" s="5" t="s">
         <v>55</v>
       </c>
@@ -1224,7 +1790,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" ht="79.95" customHeight="1" spans="1:4">
       <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
@@ -1232,7 +1798,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" ht="79.95" customHeight="1" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
@@ -1240,7 +1806,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" ht="79.95" customHeight="1" spans="1:4">
       <c r="A31" s="7" t="s">
         <v>58</v>
       </c>
@@ -1248,7 +1814,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" ht="79.95" customHeight="1" spans="1:4">
       <c r="A32" s="7" t="s">
         <v>59</v>
       </c>
@@ -1256,7 +1822,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" ht="79.95" customHeight="1" spans="1:4">
       <c r="A33" s="7" t="s">
         <v>60</v>
       </c>
@@ -1264,7 +1830,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" ht="79.95" customHeight="1" spans="1:4">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -1272,7 +1838,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" ht="79.95" customHeight="1" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
@@ -1280,7 +1846,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" ht="79.95" customHeight="1" spans="1:4">
       <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1854,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" ht="79.95" customHeight="1" spans="1:4">
       <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
@@ -1296,7 +1862,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" ht="79.95" customHeight="1" spans="1:4">
       <c r="A38" s="5" t="s">
         <v>65</v>
       </c>
@@ -1304,7 +1870,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="79.95" customHeight="1" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
@@ -1314,7 +1880,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" ht="79.95" customHeight="1" spans="1:4">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
@@ -1322,7 +1888,7 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" ht="79.95" customHeight="1" spans="1:4">
       <c r="A41" s="5" t="s">
         <v>69</v>
       </c>
@@ -1330,7 +1896,7 @@
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" ht="79.95" customHeight="1" spans="1:4">
       <c r="A42" s="5" t="s">
         <v>70</v>
       </c>
@@ -1338,889 +1904,891 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="43" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A43" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A44" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A45" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A46" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="11" t="s">
+      <c r="B46" s="4"/>
+      <c r="C46" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A47" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A48" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-    </row>
-    <row r="68" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-    </row>
-    <row r="88" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-    </row>
-    <row r="94" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-    </row>
-    <row r="96" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-    </row>
-    <row r="97" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-    </row>
-    <row r="99" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-    </row>
-    <row r="102" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-    </row>
-    <row r="103" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-    </row>
-    <row r="104" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-    </row>
-    <row r="105" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-    </row>
-    <row r="106" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-    </row>
-    <row r="107" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-    </row>
-    <row r="108" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-    </row>
-    <row r="109" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-    </row>
-    <row r="110" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-    </row>
-    <row r="112" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-    </row>
-    <row r="113" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-    </row>
-    <row r="114" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-    </row>
-    <row r="115" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-    </row>
-    <row r="116" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-    </row>
-    <row r="117" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-    </row>
-    <row r="118" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-    </row>
-    <row r="119" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-    </row>
-    <row r="120" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-    </row>
-    <row r="121" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-    </row>
-    <row r="122" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-    </row>
-    <row r="123" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-    </row>
-    <row r="126" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-    </row>
-    <row r="127" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-    </row>
-    <row r="128" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-    </row>
-    <row r="129" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-    </row>
-    <row r="130" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-    </row>
-    <row r="131" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-    </row>
-    <row r="132" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-    </row>
-    <row r="133" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-    </row>
-    <row r="134" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-    </row>
-    <row r="135" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-    </row>
-    <row r="136" spans="1:4" ht="79.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" ht="79.95" customHeight="1" spans="1:4">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>单词</t>
   </si>
@@ -502,18 +502,40 @@
 Precise
 PRECISE</t>
   </si>
+  <si>
+    <t>stratified sampling
+基本翻译
+[统计] 分层抽样，[统计] 分层取样；成层抽样
+网络释义
+stratified sampling:分层抽样 ; 分层取样 ; 统计处理
+相关查询
+Stratified sampling
+STRATIFIED sampling
+stratified Sampling
+stratified SAMPLING</t>
+  </si>
+  <si>
+    <t>proportions /prə'pɔ:ʃəns/
+基本翻译
+n. [数] 比例；大小（proportion的复数形式）
+网络释义
+Proportions:比例此字段中所列的各个项目显示钻石车工的比例数值 ; 比例 ; 切磨比例
+相关查询
+Proportions
+PROPORTIONS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,30 +544,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,7 +568,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,8 +589,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,43 +607,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,6 +628,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -657,23 +651,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,13 +709,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,13 +781,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +805,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,139 +883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,6 +908,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,17 +951,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -955,9 +968,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,26 +1001,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,10 +1015,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,137 +1027,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1171,10 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1498,8 +1504,8 @@
   <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1923,7 +1929,7 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="4"/>
@@ -1931,17 +1937,17 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B47" s="4"/>
@@ -1949,7 +1955,7 @@
       <c r="D47" s="4"/>
     </row>
     <row r="48" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B48" s="4"/>
@@ -1965,13 +1971,17 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A50" s="4"/>
+      <c r="A50" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
     <row r="51" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A51" s="4"/>
+      <c r="A51" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>

--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>单词</t>
   </si>
@@ -523,6 +523,112 @@
 相关查询
 Proportions
 PROPORTIONS</t>
+  </si>
+  <si>
+    <t>strata /'strɑːtə/
+基本翻译
+n. 层；[地质] 地层；阶层
+n. (Strata)人名；(意、塞)斯特拉塔
+网络释义
+Strata:层 ; 地层 ; 阶层
+相关查询
+Strata
+STRATA
+many strata
+Many strata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceil /siːl/
+基本翻译
+vt. 装天花板；装船内格子板
+网络释义
+ceil:向正无穷取整 ; 朝正无穷大方向取整 ; 进一法取整
+相关查询
+Ceil
+CEIL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manipulating /[məˈnipjuleitɪŋ]/
+基本翻译
+v. 操纵；假造；手动（manipulate的ing形式
+网络释义
+manipulating:操纵 ; 操作 ; 操纵操作
+相关查询
+Manipulating
+MANIPULATING
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geographical /dʒɪə'græfɪk(ə)l/
+基本翻译
+adj. 地理的；地理学的
+网络释义
+geographical:地理的 ; 区域的 ; 地理学的
+相关查询
+GEOGRAPHICAL
+geographical
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proximity /prɒk'sɪmɪtɪ/
+基本翻译
+n. 接近，[数]邻近；接近；接近度，距离；亲近
+网络释义
+proximity:接近 ; 近距 ; 邻近
+相关查询
+Proximity
+PROXIMITY
+proximity to
+Proximity to
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correlations
+基本翻译
+n. 统计，[数] 相关（correlation复数形式）；相互关系
+网络释义
+Correlations:相关性 ; 相关分析 ; 相关系数
+相关查询
+CORRELATIONS
+correlations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispersed /dɪ'spɜːst/
+基本翻译
+v. 分散；传播（disperse的过去分词）
+adj. 散布的；被分散的；被驱散的
+网络释义
+Dispersed:打散 ; 被驱散的 ; 分散的
+相关查询
+Dispersed
+DISPERSED
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prototype /'prəʊtətaɪp/
+基本翻译
+n. 原型；标准，模范
+网络释义
+ProtoType:原型 ; 虐杀原形 ; 样品
+相关查询
+Prototype
+PROTOTYPE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sparse matrix
+基本翻译
+[计] 稀疏矩阵
+网络释义
+Sparse matrix:稀疏矩阵 ; 稀疏矩阵 ; 稀巯阵
+相关查询
+Sparse matrix
+SPARSE matrix
+sparse Matrix
+sparse MATRIX
+</t>
   </si>
 </sst>
 </file>
@@ -530,10 +636,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -544,31 +650,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,14 +683,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,7 +697,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,17 +705,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,17 +734,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,16 +749,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,6 +777,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -709,37 +815,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,139 +971,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +1018,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -931,7 +1061,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,21 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -980,8 +1095,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,25 +1115,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,7 +1133,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1036,124 +1142,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1504,8 +1610,8 @@
   <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1987,55 +2093,73 @@
       <c r="D51" s="4"/>
     </row>
     <row r="52" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A52" s="4"/>
+      <c r="A52" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A53" s="4"/>
+      <c r="A53" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A54" s="4"/>
+      <c r="A54" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A55" s="4"/>
+      <c r="A55" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
     <row r="56" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A56" s="4"/>
+      <c r="A56" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A57" s="4"/>
+      <c r="A57" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A58" s="4"/>
+      <c r="A58" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A60" s="4"/>
+      <c r="A60" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>

--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>单词</t>
   </si>
@@ -628,6 +628,54 @@
 SPARSE matrix
 sparse Matrix
 sparse MATRIX
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stochastic gradient
+基本翻译
+随机梯度
+网络释义
+stochastic gradient:随机梯度 ; 随机梯度法
+相关查询
+STOCHASTIC Gradient
+stochastic Gradient
+Stochastic GRADIENT
+Stochastic gradient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acronyms
+基本翻译
+首字母缩略词（acronym的复数）
+网络释义
+Acronyms:首字母缩写 ; 首字母缩写词 ; 缩略词
+相关查询
+Acronyms
+ACRONYMS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precision /prɪ'sɪʒ(ə)n/
+基本翻译
+n. 精度，[数] 精密度；精确
+adj. 精密的，精确的
+网络释义
+precision:精度 ; 精密度 ; 精密
+相关查询
+Precision
+PRECISION
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reciprocal /rɪ'sɪprək(ə)l/
+基本翻译
+n. [数] 倒数；互相起作用的事物
+adj. 互惠的；相互的；倒数的，彼此相反的
+网络释义
+Reciprocal:倒数 ; 互惠 ; 相互的
+相关查询
+Reciprocal
+RECIPROCAL
 </t>
   </si>
 </sst>
@@ -636,61 +684,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -703,32 +705,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,21 +714,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,6 +742,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -785,14 +841,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -815,19 +863,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,6 +983,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -851,145 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,6 +1066,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1027,17 +1090,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,15 +1119,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,26 +1149,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,10 +1169,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,133 +1181,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1610,8 +1658,8 @@
   <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2165,25 +2213,33 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A61" s="4"/>
+      <c r="A61" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A62" s="4"/>
+      <c r="A62" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A63" s="4"/>
+      <c r="A63" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>

--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>单词</t>
   </si>
@@ -676,6 +676,19 @@
 相关查询
 Reciprocal
 RECIPROCAL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threshold /'θreʃəʊld; 'θreʃ,həʊld/
+基本翻译
+n. 入口；门槛；开始；极限；临界值
+网络释义
+threshold:阈值 ; 门槛 ; 阈
+相关查询
+Threshold
+THRESHOLD
+the threshold
+The threshold
 </t>
   </si>
 </sst>
@@ -684,10 +697,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -699,7 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,36 +727,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,17 +750,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,24 +773,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,16 +787,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,6 +832,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -841,6 +846,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -863,181 +876,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,6 +1079,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1085,16 +1109,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,22 +1118,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,11 +1140,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,16 +1161,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,133 +1194,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1658,8 +1671,8 @@
   <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2245,7 +2258,9 @@
       <c r="D64" s="4"/>
     </row>
     <row r="65" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A65" s="4"/>
+      <c r="A65" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>

--- a/Hands On Machine Learning/新学单词和专业术语.xlsx
+++ b/Hands On Machine Learning/新学单词和专业术语.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>单词</t>
   </si>
@@ -215,11 +215,9 @@
     <t>fraud /frɔːd/</t>
   </si>
   <si>
-    <t>基本翻译
+    <t xml:space="preserve">基本翻译
 n. 欺骗；骗子；诡计
-n. (Fraud)人名；(法)弗罗
-网络释义
-Fraud:欺诈 ; 欺骗 ; 诈骗</t>
+</t>
   </si>
   <si>
     <t>penalty</t>
@@ -231,156 +229,106 @@
 Penalties:点球 ; 次点球 ; 靠点球</t>
   </si>
   <si>
-    <t>anomaly detection
-基本翻译
-异常发现
-异常检测
-网络释义
-Anomaly Detection:异常检测 ; 异常侦测 ; 异常检测模型
-相关查询
-Anomaly detection
-ANOMALY detection
-anomaly Detection
-anomaly DETECTION</t>
-  </si>
-  <si>
-    <t>discard /dɪ'skɑːd/
-基本翻译
+    <t>anomaly detection</t>
+  </si>
+  <si>
+    <t>异常检测 ; 异常侦测 ; 异常检测模型</t>
+  </si>
+  <si>
+    <t>discard /dɪ'skɑːd/</t>
+  </si>
+  <si>
+    <t>基本翻译
 vt. 抛弃；放弃；丢弃
 vi. 放弃
-n. 抛弃；被丢弃的东西或人
-网络释义
-discard:丢弃 ; 抛弃 ; 遗弃
-相关查询
-Discard
-DISCARD
-discard them
-Discard them</t>
-  </si>
-  <si>
-    <t>outliers
-基本翻译
-n. [分化] 异常值；离群值；离开本体的东西；局外人（outlier的复数）
-网络释义
-Outliers:极端值 ; 异常值 ; 离群值
-相关查询
-Outliers
-OUTLIERS</t>
-  </si>
-  <si>
-    <t>constraints /kən'streint/
-基本翻译
-n. [数] 约束；限制；约束条件（constraint的复数形式）
-网络释义
-Constraints:约束 ; 掣肘 ; 约束条件
-相关查询
-Constraints
-CONSTRAINTS</t>
-  </si>
-  <si>
-    <t>regularization /,reɡjulərai'zeiʃən, -ri'z-/
-基本翻译
-n. 规则化；调整；合法化
-网络释义
-Regularization:正则化 ; 正规化 ; 转正
-相关查询
-Regularization
-REGULARIZATION</t>
-  </si>
-  <si>
-    <t>superfluous /suː'pɜːflʊəs; sjuː-/
-基本翻译
+n. 抛弃；被丢弃的东西或人</t>
+  </si>
+  <si>
+    <t>outliers</t>
+  </si>
+  <si>
+    <t>基本翻译
+n. [分化] 异常值；离群值；离开本体的东西；局外人（outlier的复数）</t>
+  </si>
+  <si>
+    <t>constraints /kən'streint/</t>
+  </si>
+  <si>
+    <t>基本翻译
+n. [数] 约束；限制；约束条件（constraint的复数形式）</t>
+  </si>
+  <si>
+    <t>regularization /,reɡjulərai'zeiʃən, -ri'z-/</t>
+  </si>
+  <si>
+    <t>基本翻译
+n. 规则化；调整；合法化</t>
+  </si>
+  <si>
+    <t>superfluous /suː'pɜːflʊəs; sjuː-/</t>
+  </si>
+  <si>
+    <t>基本翻译
 adj. 多余的；不必要的；奢侈的
-网络释义
-Superfluous:多余 ; 过剩的 ; 花架子
-相关查询
-Superfluous
-SUPERFLUOUS
-the superfluous
-The superfluous</t>
-  </si>
-  <si>
-    <t>fundamentally /fʌndə'mentəlɪ/
-基本翻译
+网络释义</t>
+  </si>
+  <si>
+    <t>fundamentally /fʌndə'mentəlɪ/</t>
+  </si>
+  <si>
+    <t>基本翻译
 adv. 根本地，从根本上；基础地
-网络释义
-Fundamentally:基础的 ; 根本地 ; 重要地
-相关查询
-Fundamentally
-FUNDAMENTALLY</t>
-  </si>
-  <si>
-    <t>theorem /'θɪərəm/
-基本翻译
-n. [数] 定理；原理
-网络释义
-theorem:定理 ; 原理 ; 大数定理
-相关查询
-Theorem
-THEOREM</t>
-  </si>
-  <si>
-    <t>a priori /,eiprai'ɔ:rai, ,ɑ:pri:'ɔ:ri/
-基本翻译
+网络释义</t>
+  </si>
+  <si>
+    <t>theorem /'θɪərəm/</t>
+  </si>
+  <si>
+    <t>基本翻译
+n. [数] 定理；原理</t>
+  </si>
+  <si>
+    <t>a priori /,eiprai'ɔ:rai, ,ɑ:pri:'ɔ:ri/</t>
+  </si>
+  <si>
+    <t>基本翻译
 adv. 先天地；演绎地；推理地
-adj. 先天的；（拉）演绎的，推理的
-网络释义
-A priori:先创语言与非先创语言 ; 先验的 ; 先天的
-相关查询
-A priori
-a Priori
-a PRIORI
-A Priori</t>
-  </si>
-  <si>
-    <t>terrains
-基本翻译
-n. [地理] 地形
-网络释义
-terrains:地形 ; 地面地形 ; 河流道路等
-相关查询
-Terrains
-TERRAINS</t>
-  </si>
-  <si>
-    <t>segment /'segm(ə)nt/
-基本翻译
+adj. 先天的；（拉）演绎的，推理的</t>
+  </si>
+  <si>
+    <t>terrains</t>
+  </si>
+  <si>
+    <t>基本翻译
+n. [地理] 地形</t>
+  </si>
+  <si>
+    <t>segment /'segm(ə)nt/</t>
+  </si>
+  <si>
+    <t>基本翻译
 vt. 分割
 vi. 分割
-n. 段；部分
-网络释义
-SEGMENT:段 ; 部分 ; 线段
-相关查询
-Segment
-SEGMENT
-to segment
-To segment</t>
-  </si>
-  <si>
-    <t>frame /freɪm/
-基本翻译
+n. 段；部分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame /freɪm/
+</t>
+  </si>
+  <si>
+    <t>基本翻译
 vt. 设计；建造；陷害；使…适合
 vi. 有成功希望
 n. 框架；结构；[电影] 画面
-adj. 有木架的；有构架的
-n. (Frame)人名；(英)弗雷姆
-网络释义
-Frame:车架 ; 框架 ; 帧
-相关查询
-Frame
-FRAME</t>
-  </si>
-  <si>
-    <t>pipeline /'paɪplaɪn/
-基本翻译
-n. 管道；输油管；传递途径
-网络释义
-Pipeline:管道 ; 管输工艺 ; 管道
-相关查询
-Pipeline
-PIPELINE
-data pipeline
-Data pipeline</t>
+adj. 有木架的；有构架的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pipeline /'paɪplaɪn/
+</t>
+  </si>
+  <si>
+    <t>基本翻译
+n. 管道；输油管；传递途径</t>
   </si>
   <si>
     <t>manipulate 
@@ -691,14 +639,51 @@
 The threshold
 </t>
   </si>
+  <si>
+    <t>abundant /əˈbʌndənt/
+基本翻译
+adj. 丰富的；充裕的；盛产
+网络释义
+abundant:丰富的 ; 充足的 ; 充裕的
+相关查询
+Abundant
+ABUNDANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagonal /daɪ'æg(ə)n(ə)l/
+基本翻译
+n. 对角线；斜线
+adj. 斜的；对角线的；斜纹的
+网络释义
+Diagonal:对角线 ; 对角 ; 斜的
+相关查询
+Diagonal
+DIAGONAL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odd /ɒd/
+基本翻译
+adj. 奇数的；古怪的；剩余的；临时的；零散的
+n. 奇数；怪人；奇特的事物
+n. (Odd)人名；(英、西、挪、瑞典)奥德
+网络释义
+odd:余的 ; 奇数 ; 零头
+相关查询
+Odd
+ODD
+and odd
+And odd
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -719,6 +704,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -733,39 +747,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,14 +771,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -795,18 +778,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -817,8 +793,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,6 +812,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,15 +834,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,6 +861,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -888,169 +909,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,6 +1066,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1090,17 +1084,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,15 +1113,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,30 +1132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1176,16 +1146,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,19 +1179,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,112 +1200,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1671,8 +1656,8 @@
   <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1944,118 +1929,144 @@
         <v>53</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" ht="79.95" customHeight="1" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" ht="79.95" customHeight="1" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" ht="79.95" customHeight="1" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" ht="79.95" customHeight="1" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
     <row r="31" ht="79.95" customHeight="1" spans="1:4">
       <c r="A31" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" ht="79.95" customHeight="1" spans="1:4">
       <c r="A32" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
     <row r="33" ht="79.95" customHeight="1" spans="1:4">
       <c r="A33" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" ht="79.95" customHeight="1" spans="1:4">
       <c r="A34" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" ht="79.95" customHeight="1" spans="1:4">
       <c r="A35" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" ht="79.95" customHeight="1" spans="1:4">
       <c r="A36" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" ht="79.95" customHeight="1" spans="1:4">
       <c r="A37" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" ht="79.95" customHeight="1" spans="1:4">
       <c r="A38" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" ht="79.95" customHeight="1" spans="1:4">
       <c r="A39" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" ht="79.95" customHeight="1" spans="1:4">
       <c r="A40" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2063,7 +2074,7 @@
     </row>
     <row r="41" ht="79.95" customHeight="1" spans="1:4">
       <c r="A41" s="5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2071,7 +2082,7 @@
     </row>
     <row r="42" ht="79.95" customHeight="1" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2079,7 +2090,7 @@
     </row>
     <row r="43" ht="79.95" customHeight="1" spans="1:4">
       <c r="A43" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2087,17 +2098,17 @@
     </row>
     <row r="44" ht="79.95" customHeight="1" spans="1:4">
       <c r="A44" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" ht="79.95" customHeight="1" spans="1:4">
       <c r="A45" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2105,17 +2116,17 @@
     </row>
     <row r="46" ht="79.95" customHeight="1" spans="1:4">
       <c r="A46" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" ht="79.95" customHeight="1" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2123,7 +2134,7 @@
     </row>
     <row r="48" ht="79.95" customHeight="1" spans="1:4">
       <c r="A48" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2131,7 +2142,7 @@
     </row>
     <row r="49" ht="79.95" customHeight="1" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2139,7 +2150,7 @@
     </row>
     <row r="50" ht="79.95" customHeight="1" spans="1:4">
       <c r="A50" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2147,7 +2158,7 @@
     </row>
     <row r="51" ht="79.95" customHeight="1" spans="1:4">
       <c r="A51" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2155,7 +2166,7 @@
     </row>
     <row r="52" ht="79.95" customHeight="1" spans="1:4">
       <c r="A52" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2163,7 +2174,7 @@
     </row>
     <row r="53" ht="79.95" customHeight="1" spans="1:4">
       <c r="A53" s="5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2171,7 +2182,7 @@
     </row>
     <row r="54" ht="79.95" customHeight="1" spans="1:4">
       <c r="A54" s="5" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2179,7 +2190,7 @@
     </row>
     <row r="55" ht="79.95" customHeight="1" spans="1:4">
       <c r="A55" s="5" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2187,7 +2198,7 @@
     </row>
     <row r="56" ht="79.95" customHeight="1" spans="1:4">
       <c r="A56" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2195,7 +2206,7 @@
     </row>
     <row r="57" ht="79.95" customHeight="1" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2203,7 +2214,7 @@
     </row>
     <row r="58" ht="79.95" customHeight="1" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2211,7 +2222,7 @@
     </row>
     <row r="59" ht="79.95" customHeight="1" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2219,7 +2230,7 @@
     </row>
     <row r="60" ht="79.95" customHeight="1" spans="1:4">
       <c r="A60" s="5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2227,7 +2238,7 @@
     </row>
     <row r="61" ht="79.95" customHeight="1" spans="1:4">
       <c r="A61" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2235,7 +2246,7 @@
     </row>
     <row r="62" ht="79.95" customHeight="1" spans="1:4">
       <c r="A62" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2243,7 +2254,7 @@
     </row>
     <row r="63" ht="79.95" customHeight="1" spans="1:4">
       <c r="A63" s="5" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2251,7 +2262,7 @@
     </row>
     <row r="64" ht="79.95" customHeight="1" spans="1:4">
       <c r="A64" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2259,26 +2270,32 @@
     </row>
     <row r="65" ht="79.95" customHeight="1" spans="1:4">
       <c r="A65" s="5" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A66" s="4"/>
+      <c r="A66" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
     <row r="67" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A67" s="4"/>
+      <c r="A67" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
     <row r="68" ht="79.95" customHeight="1" spans="1:4">
-      <c r="A68" s="4"/>
+      <c r="A68" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
